--- a/Dashboard design.xlsx
+++ b/Dashboard design.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldhealthorg-my.sharepoint.com/personal/nathansonc_who_int/Documents/Documents/Roadmap to 100%/Dashboard/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldhealthorg-my.sharepoint.com/personal/yamanakat_who_int/Documents/Desktop/dx_benchmarks/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{FCD846D1-04E1-AD4D-898B-9C4AAA51FC48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="460" windowWidth="35260" windowHeight="23440" xr2:uid="{6A695989-A8BE-284C-BA1D-4A4E9260D622}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{6A695989-A8BE-284C-BA1D-4A4E9260D622}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -323,7 +321,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -605,48 +603,18 @@
   <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -662,128 +630,41 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="5" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="7" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="9" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="9" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -804,8 +685,125 @@
     <xf numFmtId="0" fontId="8" fillId="12" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="9" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="9" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="7" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="5" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -829,7 +827,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1382,7 +1380,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-SE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="83342447"/>
@@ -1437,7 +1435,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-SE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="82934623"/>
@@ -1471,7 +1469,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-SE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2369,883 +2367,837 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA59D5B-477F-2243-8807-33AE26997A51}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:F41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" style="1" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" style="1" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="42.6640625" style="1" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" style="1" hidden="1" customWidth="1"/>
     <col min="4" max="5" width="12.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="81.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="81.44140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.83203125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="16.77734375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="31" x14ac:dyDescent="0.35">
-      <c r="E1" s="69" t="s">
+    <row r="1" spans="1:8" ht="30">
+      <c r="E1" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="69"/>
-    </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="68" t="s">
+      <c r="F1" s="67"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="65" t="s">
+      <c r="D3" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="65" t="s">
+      <c r="E3" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="F3" s="65" t="s">
+      <c r="F3" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="G3" s="65" t="s">
+      <c r="G3" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="H3" s="64" t="s">
+      <c r="H3" s="25" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="63" t="s">
+    <row r="4" spans="1:8">
+      <c r="A4" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="61">
+      <c r="D4" s="55">
         <v>1</v>
       </c>
-      <c r="E4" s="57" t="s">
+      <c r="E4" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="G4" s="60">
+      <c r="G4" s="22">
         <v>413254</v>
       </c>
-      <c r="H4" s="54">
+      <c r="H4" s="30">
         <f>IF(Dashboard!$G4&gt;0,Dashboard!$G4/G5,"-")</f>
         <v>0.87911793361952695</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+    <row r="5" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A5" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="59">
+      <c r="C5" s="51"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="21">
         <v>470078</v>
       </c>
-      <c r="H5" s="49"/>
-    </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
+      <c r="H5" s="31"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickTop="1">
+      <c r="A6" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="58"/>
-      <c r="E6" s="57" t="s">
+      <c r="D6" s="56"/>
+      <c r="E6" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="F6" s="56" t="s">
+      <c r="F6" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="G6" s="55">
+      <c r="G6" s="20">
         <v>1296160</v>
       </c>
-      <c r="H6" s="54">
+      <c r="H6" s="30">
         <f>IF(Dashboard!$G6&gt;0,Dashboard!$G6/G7,"-")</f>
         <v>0.92022571145397591</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+    <row r="7" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A7" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="50">
+      <c r="C7" s="51"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="19">
         <v>1408524</v>
       </c>
-      <c r="H7" s="49"/>
-    </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
+      <c r="H7" s="31"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickTop="1">
+      <c r="A8" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="58"/>
-      <c r="E8" s="57" t="s">
+      <c r="D8" s="56"/>
+      <c r="E8" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="56" t="s">
+      <c r="F8" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="G8" s="55">
+      <c r="G8" s="20">
         <v>131968</v>
       </c>
-      <c r="H8" s="54">
+      <c r="H8" s="30">
         <f>IF(Dashboard!$G8&gt;0,Dashboard!$G8/G9,"-")</f>
         <v>0.99751317112255</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+    <row r="9" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A9" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="50">
+      <c r="C9" s="51"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="19">
         <v>132297</v>
       </c>
-      <c r="H9" s="49"/>
-    </row>
-    <row r="10" spans="1:8" s="1" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
+      <c r="H9" s="31"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickTop="1">
+      <c r="A10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="58"/>
-      <c r="E10" s="57" t="s">
+      <c r="D10" s="56"/>
+      <c r="E10" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="56" t="s">
+      <c r="F10" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="G10" s="55"/>
-      <c r="H10" s="54" t="str">
+      <c r="G10" s="20"/>
+      <c r="H10" s="30" t="str">
         <f>IF(Dashboard!$G10&gt;0,Dashboard!$G10/G11,"-")</f>
         <v>-</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+    <row r="11" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A11" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="49"/>
-    </row>
-    <row r="12" spans="1:8" s="1" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
+      <c r="C11" s="51"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="31"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" thickTop="1">
+      <c r="A12" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="58"/>
-      <c r="E12" s="57" t="s">
+      <c r="D12" s="56"/>
+      <c r="E12" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="56" t="s">
+      <c r="F12" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="G12" s="55"/>
-      <c r="H12" s="54" t="str">
+      <c r="G12" s="20"/>
+      <c r="H12" s="30" t="str">
         <f>IF(Dashboard!$G12&gt;0,Dashboard!$G12/G13,"-")</f>
         <v>-</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+    <row r="13" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A13" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="49"/>
-    </row>
-    <row r="14" spans="1:8" s="1" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="17">
+      <c r="C13" s="51"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="31"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" thickTop="1">
+      <c r="A14" s="7">
         <v>2</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="58"/>
-      <c r="E14" s="57">
+      <c r="D14" s="56"/>
+      <c r="E14" s="68">
         <v>2</v>
       </c>
-      <c r="F14" s="56" t="s">
+      <c r="F14" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="55">
+      <c r="G14" s="20">
         <v>60</v>
       </c>
-      <c r="H14" s="54">
+      <c r="H14" s="30">
         <f>IF(Dashboard!$G14&gt;0,Dashboard!$G14/G15,"-")</f>
         <v>0.41095890410958902</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20">
+    <row r="15" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A15" s="10">
         <v>2</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="50">
+      <c r="C15" s="51"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="19">
         <v>146</v>
       </c>
-      <c r="H15" s="49"/>
-    </row>
-    <row r="16" spans="1:8" s="1" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="17">
+      <c r="H15" s="31"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" thickTop="1">
+      <c r="A16" s="7">
         <v>3</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="48">
+      <c r="D16" s="58">
         <v>2</v>
       </c>
-      <c r="E16" s="44">
+      <c r="E16" s="52">
         <v>3</v>
       </c>
-      <c r="F16" s="43" t="s">
+      <c r="F16" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="42"/>
-      <c r="H16" s="41" t="str">
+      <c r="G16" s="16"/>
+      <c r="H16" s="32" t="str">
         <f>IF(Dashboard!$G16&gt;0,Dashboard!$G16/G17,"-")</f>
         <v>-</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20">
+    <row r="17" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A17" s="10">
         <v>3</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="37">
+      <c r="C17" s="51"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="15">
         <v>146</v>
       </c>
-      <c r="H17" s="36"/>
-    </row>
-    <row r="18" spans="1:8" s="1" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="17">
+      <c r="H17" s="33"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" thickTop="1">
+      <c r="A18" s="7">
         <v>4</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="45"/>
-      <c r="E18" s="44">
+      <c r="D18" s="59"/>
+      <c r="E18" s="52">
         <v>4</v>
       </c>
-      <c r="F18" s="43" t="s">
+      <c r="F18" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="G18" s="42">
+      <c r="G18" s="16">
         <v>3021</v>
       </c>
-      <c r="H18" s="41">
+      <c r="H18" s="32">
         <f>IF(Dashboard!$G18&gt;0,Dashboard!$G18/G19,"-")</f>
         <v>0.47217880587683653</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20">
+    <row r="19" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A19" s="10">
         <v>4</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="37">
+      <c r="C19" s="51"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="15">
         <v>6398</v>
       </c>
-      <c r="H19" s="36"/>
-    </row>
-    <row r="20" spans="1:8" s="1" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="17">
+      <c r="H19" s="33"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" thickTop="1">
+      <c r="A20" s="7">
         <v>5</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="45"/>
-      <c r="E20" s="44">
+      <c r="D20" s="59"/>
+      <c r="E20" s="52">
         <v>5</v>
       </c>
-      <c r="F20" s="43" t="s">
+      <c r="F20" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="G20" s="47">
+      <c r="G20" s="18">
         <v>59881</v>
       </c>
-      <c r="H20" s="41">
+      <c r="H20" s="32">
         <f>IF(Dashboard!$G20&gt;0,Dashboard!$G20/G21,"-")</f>
         <v>0.69251408019058858</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20">
+    <row r="21" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A21" s="10">
         <v>5</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="46">
+      <c r="C21" s="51"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="17">
         <v>86469</v>
       </c>
-      <c r="H21" s="36"/>
-    </row>
-    <row r="22" spans="1:8" s="1" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="17">
+      <c r="H21" s="33"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" thickTop="1">
+      <c r="A22" s="7">
         <v>6</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="45"/>
-      <c r="E22" s="44">
+      <c r="D22" s="59"/>
+      <c r="E22" s="52">
         <v>6</v>
       </c>
-      <c r="F22" s="43" t="s">
+      <c r="F22" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="G22" s="42">
+      <c r="G22" s="16">
         <v>1328250</v>
       </c>
-      <c r="H22" s="41">
+      <c r="H22" s="32">
         <f>IF(Dashboard!$G22&gt;0,Dashboard!$G22/G23,"-")</f>
         <v>0.94793004051495455</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20">
+    <row r="23" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A23" s="10">
         <v>6</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="37">
+      <c r="C23" s="51"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="15">
         <v>1401211</v>
       </c>
-      <c r="H23" s="36"/>
-    </row>
-    <row r="24" spans="1:8" s="1" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="17">
+      <c r="H23" s="33"/>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" thickTop="1">
+      <c r="A24" s="7">
         <v>7</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="35">
+      <c r="D24" s="61">
         <v>3</v>
       </c>
-      <c r="E24" s="30">
+      <c r="E24" s="36">
         <v>7</v>
       </c>
-      <c r="F24" s="29" t="s">
+      <c r="F24" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="G24" s="28">
+      <c r="G24" s="12">
         <v>265</v>
       </c>
-      <c r="H24" s="27">
+      <c r="H24" s="34">
         <f>IF(Dashboard!$G24&gt;0,Dashboard!$G24/G25,"-")</f>
         <v>0.75498575498575493</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="20">
+    <row r="25" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A25" s="10">
         <v>7</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="34">
+      <c r="C25" s="51"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="14">
         <v>351</v>
       </c>
-      <c r="H25" s="22"/>
-    </row>
-    <row r="26" spans="1:8" s="1" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="17">
+      <c r="H25" s="35"/>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" thickTop="1">
+      <c r="A26" s="7">
         <v>8</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="31"/>
-      <c r="E26" s="30">
+      <c r="D26" s="62"/>
+      <c r="E26" s="36">
         <v>8</v>
       </c>
-      <c r="F26" s="29" t="s">
+      <c r="F26" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="G26" s="33">
+      <c r="G26" s="13">
         <v>692075</v>
       </c>
-      <c r="H26" s="27">
+      <c r="H26" s="34">
         <f>IF(Dashboard!$G26&gt;0,Dashboard!$G26/G27,"-")</f>
         <v>0.49391205178948783</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="20">
+    <row r="27" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A27" s="10">
         <v>8</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="23">
+      <c r="C27" s="51"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="11">
         <v>1401211</v>
       </c>
-      <c r="H27" s="22"/>
-    </row>
-    <row r="28" spans="1:8" s="1" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="17" t="s">
+      <c r="H27" s="35"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" thickTop="1">
+      <c r="A28" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="32" t="s">
+      <c r="C28" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="31"/>
-      <c r="E28" s="30" t="s">
+      <c r="D28" s="62"/>
+      <c r="E28" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="F28" s="29" t="s">
+      <c r="F28" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="G28" s="28">
+      <c r="G28" s="12">
         <v>51129</v>
       </c>
-      <c r="H28" s="27">
+      <c r="H28" s="34">
         <f>IF(Dashboard!$G28&gt;0,Dashboard!$G28/G29,"-")</f>
         <v>0.88473784391763277</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
+    <row r="29" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A29" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="23">
+      <c r="C29" s="51"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="11">
         <v>57790</v>
       </c>
-      <c r="H29" s="22"/>
-    </row>
-    <row r="30" spans="1:8" s="1" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="17" t="s">
+      <c r="H29" s="35"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" thickTop="1">
+      <c r="A30" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="32" t="s">
+      <c r="C30" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="31"/>
-      <c r="E30" s="30" t="s">
+      <c r="D30" s="62"/>
+      <c r="E30" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="F30" s="29" t="s">
+      <c r="F30" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="G30" s="28">
+      <c r="G30" s="12">
         <v>422</v>
       </c>
-      <c r="H30" s="27">
+      <c r="H30" s="34">
         <f>IF(Dashboard!$G30&gt;0,Dashboard!$G30/G31,"-")</f>
         <v>0.64329268292682928</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="20" t="s">
+    <row r="31" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A31" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="23">
+      <c r="C31" s="51"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="11">
         <v>656</v>
       </c>
-      <c r="H31" s="22"/>
-    </row>
-    <row r="32" spans="1:8" s="1" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="17" t="s">
+      <c r="H31" s="35"/>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" thickTop="1">
+      <c r="A32" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="32" t="s">
+      <c r="C32" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="31"/>
-      <c r="E32" s="30" t="s">
+      <c r="D32" s="62"/>
+      <c r="E32" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="F32" s="29" t="s">
+      <c r="F32" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="G32" s="28">
+      <c r="G32" s="12">
         <v>2</v>
       </c>
-      <c r="H32" s="27">
+      <c r="H32" s="34">
         <f>IF(Dashboard!$G32&gt;0,Dashboard!$G32/G33,"-")</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="20" t="s">
+    <row r="33" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A33" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="23">
+      <c r="C33" s="51"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="11">
         <v>4</v>
       </c>
-      <c r="H33" s="22"/>
-    </row>
-    <row r="34" spans="1:8" s="1" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="17" t="s">
+      <c r="H33" s="35"/>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" thickTop="1">
+      <c r="A34" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="32" t="s">
+      <c r="C34" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="31"/>
-      <c r="E34" s="30" t="s">
+      <c r="D34" s="62"/>
+      <c r="E34" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="29" t="s">
+      <c r="F34" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="G34" s="28">
+      <c r="G34" s="12">
         <v>2</v>
       </c>
-      <c r="H34" s="27">
+      <c r="H34" s="34">
         <f>IF(Dashboard!$G34&gt;0,Dashboard!$G34/G35,"-")</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="20" t="s">
+    <row r="35" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A35" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="23">
+      <c r="C35" s="51"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="11">
         <v>4</v>
       </c>
-      <c r="H35" s="22"/>
-    </row>
-    <row r="36" spans="1:8" s="1" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="17">
+      <c r="H35" s="35"/>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" thickTop="1">
+      <c r="A36" s="7">
         <v>10</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C36" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="21">
+      <c r="D36" s="64">
         <v>4</v>
       </c>
-      <c r="E36" s="13">
+      <c r="E36" s="40">
         <v>10</v>
       </c>
-      <c r="F36" s="12" t="s">
+      <c r="F36" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="G36" s="11"/>
-      <c r="H36" s="10" t="str">
+      <c r="G36" s="5"/>
+      <c r="H36" s="38" t="str">
         <f>IF(Dashboard!$G36&gt;0,Dashboard!$G36/G37,"-")</f>
         <v>-</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="20">
+    <row r="37" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A37" s="10">
         <v>10</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="18">
+      <c r="C37" s="51"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="8">
         <v>83561</v>
       </c>
-      <c r="H37" s="2"/>
-    </row>
-    <row r="38" spans="1:8" s="1" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="17">
+      <c r="H37" s="39"/>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" thickTop="1">
+      <c r="A38" s="7">
         <v>11</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="D38" s="14"/>
-      <c r="E38" s="13">
+      <c r="D38" s="65"/>
+      <c r="E38" s="40">
         <v>11</v>
       </c>
-      <c r="F38" s="12" t="s">
+      <c r="F38" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="G38" s="11">
+      <c r="G38" s="5">
         <v>146</v>
       </c>
-      <c r="H38" s="10">
+      <c r="H38" s="38">
         <f>IF(Dashboard!$G38&gt;0,Dashboard!$G38/G39,"-")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="20">
+    <row r="39" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A39" s="10">
         <v>11</v>
       </c>
-      <c r="B39" s="19" t="s">
+      <c r="B39" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="18">
+      <c r="C39" s="51"/>
+      <c r="D39" s="65"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="8">
         <v>146</v>
       </c>
-      <c r="H39" s="2"/>
-    </row>
-    <row r="40" spans="1:8" s="1" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="17">
+      <c r="H39" s="39"/>
+    </row>
+    <row r="40" spans="1:8" ht="15.75" thickTop="1">
+      <c r="A40" s="7">
         <v>12</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C40" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D40" s="14"/>
-      <c r="E40" s="13">
+      <c r="D40" s="65"/>
+      <c r="E40" s="40">
         <v>12</v>
       </c>
-      <c r="F40" s="12" t="s">
+      <c r="F40" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="G40" s="11"/>
-      <c r="H40" s="10" t="str">
+      <c r="G40" s="5"/>
+      <c r="H40" s="38" t="str">
         <f>IF(Dashboard!$G40&gt;0,Dashboard!$G40/G41,"-")</f>
         <v>-</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="9">
+    <row r="41" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A41" s="4">
         <v>12</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="3">
+      <c r="C41" s="51"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="2">
         <v>351</v>
       </c>
-      <c r="H41" s="2"/>
-    </row>
-    <row r="42" spans="1:8" s="1" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
+      <c r="H41" s="39"/>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" thickTop="1"/>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
     <mergeCell ref="C30:C31"/>
     <mergeCell ref="C32:C33"/>
     <mergeCell ref="F40:F41"/>
@@ -3262,18 +3214,64 @@
     <mergeCell ref="D16:D23"/>
     <mergeCell ref="D24:D35"/>
     <mergeCell ref="D36:D41"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E38:E39"/>
     <mergeCell ref="E40:E41"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H12:H13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
